--- a/natmiOut/OldD7/LR-pairs_lrc2p/Edn1-Ednra.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Edn1-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8433913281006</v>
+        <v>18.83231666666667</v>
       </c>
       <c r="H2">
-        <v>16.8433913281006</v>
+        <v>56.49695</v>
       </c>
       <c r="I2">
-        <v>0.9601655234215075</v>
+        <v>0.9386336222326693</v>
       </c>
       <c r="J2">
-        <v>0.9601655234215075</v>
+        <v>0.9386336222326694</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.51585713870719</v>
+        <v>6.433013333333332</v>
       </c>
       <c r="N2">
-        <v>4.51585713870719</v>
+        <v>19.29904</v>
       </c>
       <c r="O2">
-        <v>0.1010459402522268</v>
+        <v>0.1097146002786867</v>
       </c>
       <c r="P2">
-        <v>0.1010459402522268</v>
+        <v>0.1097146002786867</v>
       </c>
       <c r="Q2">
-        <v>76.06234896904188</v>
+        <v>121.1485442142222</v>
       </c>
       <c r="R2">
-        <v>76.06234896904188</v>
+        <v>1090.336897928</v>
       </c>
       <c r="S2">
-        <v>0.09702082811189774</v>
+        <v>0.1029818126713931</v>
       </c>
       <c r="T2">
-        <v>0.09702082811189774</v>
+        <v>0.1029818126713931</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8433913281006</v>
+        <v>18.83231666666667</v>
       </c>
       <c r="H3">
-        <v>16.8433913281006</v>
+        <v>56.49695</v>
       </c>
       <c r="I3">
-        <v>0.9601655234215075</v>
+        <v>0.9386336222326693</v>
       </c>
       <c r="J3">
-        <v>0.9601655234215075</v>
+        <v>0.9386336222326694</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>32.5031156240661</v>
+        <v>32.709374</v>
       </c>
       <c r="N3">
-        <v>32.5031156240661</v>
+        <v>98.12812199999999</v>
       </c>
       <c r="O3">
-        <v>0.7272833879551917</v>
+        <v>0.5578561255548565</v>
       </c>
       <c r="P3">
-        <v>0.7272833879551917</v>
+        <v>0.5578561255548566</v>
       </c>
       <c r="Q3">
-        <v>547.462695838646</v>
+        <v>615.9932891364333</v>
       </c>
       <c r="R3">
-        <v>547.462695838646</v>
+        <v>5543.9396022279</v>
       </c>
       <c r="S3">
-        <v>0.6983124348717639</v>
+        <v>0.5236225158142378</v>
       </c>
       <c r="T3">
-        <v>0.6983124348717639</v>
+        <v>0.5236225158142379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8433913281006</v>
+        <v>18.83231666666667</v>
       </c>
       <c r="H4">
-        <v>16.8433913281006</v>
+        <v>56.49695</v>
       </c>
       <c r="I4">
-        <v>0.9601655234215075</v>
+        <v>0.9386336222326693</v>
       </c>
       <c r="J4">
-        <v>0.9601655234215075</v>
+        <v>0.9386336222326694</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.67215611815838</v>
+        <v>0.07263</v>
       </c>
       <c r="N4">
-        <v>7.67215611815838</v>
+        <v>0.21789</v>
       </c>
       <c r="O4">
-        <v>0.1716706717925815</v>
+        <v>0.001238699658362439</v>
       </c>
       <c r="P4">
-        <v>0.1716706717925815</v>
+        <v>0.001238699658362439</v>
       </c>
       <c r="Q4">
-        <v>129.2251278284228</v>
+        <v>1.3677911595</v>
       </c>
       <c r="R4">
-        <v>129.2251278284228</v>
+        <v>12.3101204355</v>
       </c>
       <c r="S4">
-        <v>0.1648322604378458</v>
+        <v>0.001162685147187106</v>
       </c>
       <c r="T4">
-        <v>0.1648322604378458</v>
+        <v>0.001162685147187106</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.419857296278956</v>
+        <v>18.83231666666667</v>
       </c>
       <c r="H5">
-        <v>0.419857296278956</v>
+        <v>56.49695</v>
       </c>
       <c r="I5">
-        <v>0.02393416461039282</v>
+        <v>0.9386336222326693</v>
       </c>
       <c r="J5">
-        <v>0.02393416461039282</v>
+        <v>0.9386336222326694</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.51585713870719</v>
+        <v>19.41905066666667</v>
       </c>
       <c r="N5">
-        <v>4.51585713870719</v>
+        <v>58.257152</v>
       </c>
       <c r="O5">
-        <v>0.1010459402522268</v>
+        <v>0.3311905745080943</v>
       </c>
       <c r="P5">
-        <v>0.1010459402522268</v>
+        <v>0.3311905745080943</v>
       </c>
       <c r="Q5">
-        <v>1.896015568639623</v>
+        <v>365.7057115207111</v>
       </c>
       <c r="R5">
-        <v>1.896015568639623</v>
+        <v>3291.3514036864</v>
       </c>
       <c r="S5">
-        <v>0.002418450167208715</v>
+        <v>0.3108666085998513</v>
       </c>
       <c r="T5">
-        <v>0.002418450167208715</v>
+        <v>0.3108666085998513</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.419857296278956</v>
+        <v>0.589599</v>
       </c>
       <c r="H6">
-        <v>0.419857296278956</v>
+        <v>1.768797</v>
       </c>
       <c r="I6">
-        <v>0.02393416461039282</v>
+        <v>0.02938658343688073</v>
       </c>
       <c r="J6">
-        <v>0.02393416461039282</v>
+        <v>0.02938658343688073</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.5031156240661</v>
+        <v>6.433013333333332</v>
       </c>
       <c r="N6">
-        <v>32.5031156240661</v>
+        <v>19.29904</v>
       </c>
       <c r="O6">
-        <v>0.7272833879551917</v>
+        <v>0.1097146002786867</v>
       </c>
       <c r="P6">
-        <v>0.7272833879551917</v>
+        <v>0.1097146002786867</v>
       </c>
       <c r="Q6">
-        <v>13.64667024656268</v>
+        <v>3.792898228319999</v>
       </c>
       <c r="R6">
-        <v>13.64667024656268</v>
+        <v>34.13608405487999</v>
       </c>
       <c r="S6">
-        <v>0.01740692032572374</v>
+        <v>0.003224137255333643</v>
       </c>
       <c r="T6">
-        <v>0.01740692032572374</v>
+        <v>0.003224137255333644</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.419857296278956</v>
+        <v>0.589599</v>
       </c>
       <c r="H7">
-        <v>0.419857296278956</v>
+        <v>1.768797</v>
       </c>
       <c r="I7">
-        <v>0.02393416461039282</v>
+        <v>0.02938658343688073</v>
       </c>
       <c r="J7">
-        <v>0.02393416461039282</v>
+        <v>0.02938658343688073</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.67215611815838</v>
+        <v>32.709374</v>
       </c>
       <c r="N7">
-        <v>7.67215611815838</v>
+        <v>98.12812199999999</v>
       </c>
       <c r="O7">
-        <v>0.1716706717925815</v>
+        <v>0.5578561255548565</v>
       </c>
       <c r="P7">
-        <v>0.1716706717925815</v>
+        <v>0.5578561255548566</v>
       </c>
       <c r="Q7">
-        <v>3.221210724400028</v>
+        <v>19.285414201026</v>
       </c>
       <c r="R7">
-        <v>3.221210724400028</v>
+        <v>173.568727809234</v>
       </c>
       <c r="S7">
-        <v>0.004108794117460364</v>
+        <v>0.0163934855793928</v>
       </c>
       <c r="T7">
-        <v>0.004108794117460364</v>
+        <v>0.01639348557939281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.278926049920265</v>
+        <v>0.589599</v>
       </c>
       <c r="H8">
-        <v>0.278926049920265</v>
+        <v>1.768797</v>
       </c>
       <c r="I8">
-        <v>0.0159003119680997</v>
+        <v>0.02938658343688073</v>
       </c>
       <c r="J8">
-        <v>0.0159003119680997</v>
+        <v>0.02938658343688073</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>4.51585713870719</v>
+        <v>0.07263</v>
       </c>
       <c r="N8">
-        <v>4.51585713870719</v>
+        <v>0.21789</v>
       </c>
       <c r="O8">
-        <v>0.1010459402522268</v>
+        <v>0.001238699658362439</v>
       </c>
       <c r="P8">
-        <v>0.1010459402522268</v>
+        <v>0.001238699658362439</v>
       </c>
       <c r="Q8">
-        <v>1.259590193703827</v>
+        <v>0.04282257537</v>
       </c>
       <c r="R8">
-        <v>1.259590193703827</v>
+        <v>0.38540317833</v>
       </c>
       <c r="S8">
-        <v>0.00160666197312037</v>
+        <v>3.640115086370346E-05</v>
       </c>
       <c r="T8">
-        <v>0.00160666197312037</v>
+        <v>3.640115086370347E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.278926049920265</v>
+        <v>0.589599</v>
       </c>
       <c r="H9">
-        <v>0.278926049920265</v>
+        <v>1.768797</v>
       </c>
       <c r="I9">
-        <v>0.0159003119680997</v>
+        <v>0.02938658343688073</v>
       </c>
       <c r="J9">
-        <v>0.0159003119680997</v>
+        <v>0.02938658343688073</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.5031156240661</v>
+        <v>19.41905066666667</v>
       </c>
       <c r="N9">
-        <v>32.5031156240661</v>
+        <v>58.257152</v>
       </c>
       <c r="O9">
-        <v>0.7272833879551917</v>
+        <v>0.3311905745080943</v>
       </c>
       <c r="P9">
-        <v>0.7272833879551917</v>
+        <v>0.3311905745080943</v>
       </c>
       <c r="Q9">
-        <v>9.065965651122404</v>
+        <v>11.449452854016</v>
       </c>
       <c r="R9">
-        <v>9.065965651122404</v>
+        <v>103.045075686144</v>
       </c>
       <c r="S9">
-        <v>0.01156403275770404</v>
+        <v>0.009732559451290578</v>
       </c>
       <c r="T9">
-        <v>0.01156403275770404</v>
+        <v>0.009732559451290578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1997023333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.5991069999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.00995349259588257</v>
+      </c>
+      <c r="J10">
+        <v>0.009953492595882572</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.433013333333332</v>
+      </c>
+      <c r="N10">
+        <v>19.29904</v>
+      </c>
+      <c r="O10">
+        <v>0.1097146002786867</v>
+      </c>
+      <c r="P10">
+        <v>0.1097146002786867</v>
+      </c>
+      <c r="Q10">
+        <v>1.284687773031111</v>
+      </c>
+      <c r="R10">
+        <v>11.56218995728</v>
+      </c>
+      <c r="S10">
+        <v>0.001092043461534123</v>
+      </c>
+      <c r="T10">
+        <v>0.001092043461534124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1997023333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.5991069999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.00995349259588257</v>
+      </c>
+      <c r="J11">
+        <v>0.009953492595882572</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>32.709374</v>
+      </c>
+      <c r="N11">
+        <v>98.12812199999999</v>
+      </c>
+      <c r="O11">
+        <v>0.5578561255548565</v>
+      </c>
+      <c r="P11">
+        <v>0.5578561255548566</v>
+      </c>
+      <c r="Q11">
+        <v>6.532138309672665</v>
+      </c>
+      <c r="R11">
+        <v>58.78924478705399</v>
+      </c>
+      <c r="S11">
+        <v>0.005552616815278002</v>
+      </c>
+      <c r="T11">
+        <v>0.005552616815278004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1997023333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.5991069999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.00995349259588257</v>
+      </c>
+      <c r="J12">
+        <v>0.009953492595882572</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.07263</v>
+      </c>
+      <c r="N12">
+        <v>0.21789</v>
+      </c>
+      <c r="O12">
+        <v>0.001238699658362439</v>
+      </c>
+      <c r="P12">
+        <v>0.001238699658362439</v>
+      </c>
+      <c r="Q12">
+        <v>0.01450438047</v>
+      </c>
+      <c r="R12">
+        <v>0.13053942423</v>
+      </c>
+      <c r="S12">
+        <v>1.23293878780328E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.232938787803281E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1997023333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.5991069999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.00995349259588257</v>
+      </c>
+      <c r="J13">
+        <v>0.009953492595882572</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.41905066666667</v>
+      </c>
+      <c r="N13">
+        <v>58.257152</v>
+      </c>
+      <c r="O13">
+        <v>0.3311905745080943</v>
+      </c>
+      <c r="P13">
+        <v>0.3311905745080943</v>
+      </c>
+      <c r="Q13">
+        <v>3.878029729251555</v>
+      </c>
+      <c r="R13">
+        <v>34.902267563264</v>
+      </c>
+      <c r="S13">
+        <v>0.003296502931192412</v>
+      </c>
+      <c r="T13">
+        <v>0.003296502931192412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4419256666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.325777</v>
+      </c>
+      <c r="I14">
+        <v>0.02202630173456729</v>
+      </c>
+      <c r="J14">
+        <v>0.0220263017345673</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.433013333333332</v>
+      </c>
+      <c r="N14">
+        <v>19.29904</v>
+      </c>
+      <c r="O14">
+        <v>0.1097146002786867</v>
+      </c>
+      <c r="P14">
+        <v>0.1097146002786867</v>
+      </c>
+      <c r="Q14">
+        <v>2.842913706008888</v>
+      </c>
+      <c r="R14">
+        <v>25.58622335408</v>
+      </c>
+      <c r="S14">
+        <v>0.002416606890425793</v>
+      </c>
+      <c r="T14">
+        <v>0.002416606890425794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4419256666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.325777</v>
+      </c>
+      <c r="I15">
+        <v>0.02202630173456729</v>
+      </c>
+      <c r="J15">
+        <v>0.0220263017345673</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>32.709374</v>
+      </c>
+      <c r="N15">
+        <v>98.12812199999999</v>
+      </c>
+      <c r="O15">
+        <v>0.5578561255548565</v>
+      </c>
+      <c r="P15">
+        <v>0.5578561255548566</v>
+      </c>
+      <c r="Q15">
+        <v>14.45511191119933</v>
+      </c>
+      <c r="R15">
+        <v>130.096007200794</v>
+      </c>
+      <c r="S15">
+        <v>0.01228750734594793</v>
+      </c>
+      <c r="T15">
+        <v>0.01228750734594793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.278926049920265</v>
-      </c>
-      <c r="H10">
-        <v>0.278926049920265</v>
-      </c>
-      <c r="I10">
-        <v>0.0159003119680997</v>
-      </c>
-      <c r="J10">
-        <v>0.0159003119680997</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>7.67215611815838</v>
-      </c>
-      <c r="N10">
-        <v>7.67215611815838</v>
-      </c>
-      <c r="O10">
-        <v>0.1716706717925815</v>
-      </c>
-      <c r="P10">
-        <v>0.1716706717925815</v>
-      </c>
-      <c r="Q10">
-        <v>2.139964200409511</v>
-      </c>
-      <c r="R10">
-        <v>2.139964200409511</v>
-      </c>
-      <c r="S10">
-        <v>0.002729617237275299</v>
-      </c>
-      <c r="T10">
-        <v>0.002729617237275299</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4419256666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.325777</v>
+      </c>
+      <c r="I16">
+        <v>0.02202630173456729</v>
+      </c>
+      <c r="J16">
+        <v>0.0220263017345673</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07263</v>
+      </c>
+      <c r="N16">
+        <v>0.21789</v>
+      </c>
+      <c r="O16">
+        <v>0.001238699658362439</v>
+      </c>
+      <c r="P16">
+        <v>0.001238699658362439</v>
+      </c>
+      <c r="Q16">
+        <v>0.03209706117</v>
+      </c>
+      <c r="R16">
+        <v>0.28887355053</v>
+      </c>
+      <c r="S16">
+        <v>2.72839724335965E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.72839724335965E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4419256666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.325777</v>
+      </c>
+      <c r="I17">
+        <v>0.02202630173456729</v>
+      </c>
+      <c r="J17">
+        <v>0.0220263017345673</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.41905066666667</v>
+      </c>
+      <c r="N17">
+        <v>58.257152</v>
+      </c>
+      <c r="O17">
+        <v>0.3311905745080943</v>
+      </c>
+      <c r="P17">
+        <v>0.3311905745080943</v>
+      </c>
+      <c r="Q17">
+        <v>8.581776911900445</v>
+      </c>
+      <c r="R17">
+        <v>77.23599220710399</v>
+      </c>
+      <c r="S17">
+        <v>0.007294903525759977</v>
+      </c>
+      <c r="T17">
+        <v>0.007294903525759977</v>
       </c>
     </row>
   </sheetData>
